--- a/Access/Sample Databases/SalesOrdersSchema.xlsx
+++ b/Access/Sample Databases/SalesOrdersSchema.xlsx
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
